--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1237.118814097229</v>
+        <v>963.5745280696397</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108954</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.1787348</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4277760.60564207</v>
+        <v>4169743.21691425</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>382.6519885581983</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>37.79231874822841</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>40.13648361776231</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>408.8128502544027</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>383.0646100373299</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>106.0626366504663</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>47.85726769493389</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>48.26988917406522</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.4782830801035</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>171.738904007115</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>408.4002287752713</v>
+        <v>383.0646100373297</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1464,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>156.7784549731791</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>182.7085745112243</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>383.0646100373297</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>29.26230950814955</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>405.4164878341365</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.609587791059592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.05983072375</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>207.9748302204817</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>91.14543434751471</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
         <v>424.2958575201043</v>
@@ -2564,16 +2566,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F26" t="n">
-        <v>382.6519885581983</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>73.03788137001466</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>159.5828560759984</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>230.7950333358503</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>4.609587791059592</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>139.715153975956</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>267.6156636911013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>84.85899356878417</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5.372685439710589</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>211.8322023925302</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>11.92005497284495</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>67.22683568933304</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>215.2285648127964</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>375.9790740437535</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>157.9903319542523</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>85.22256772912013</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>69.97066016908303</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.40338009125914</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>140.1979688133637</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.4314930428248</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0765084323517</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>60.60361897781151</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>73.94274922983051</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>181.0765084323517</v>
+        <v>174.543305109934</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>181.0765084323517</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>849.4592923969963</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>420.8776181342646</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4340,10 +4342,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4370,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4416,10 +4418,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513676</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.7801684713901</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,46 +4494,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1641.225609687538</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1656.641527436213</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1410.762081014668</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1410.762081014668</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1123.806572885099</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>851.7801684713901</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X4" t="n">
-        <v>851.7801684713901</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="Y4" t="n">
-        <v>851.7801684713901</v>
+        <v>466.2711264523757</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>891.1070171270717</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="C5" t="n">
-        <v>462.52534286434</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="D5" t="n">
-        <v>462.52534286434</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>446.8859415858535</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4604,13 +4606,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1310.249480547761</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>891.1070171270717</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.1070171270717</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4729,16 +4731,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P7" t="n">
         <v>1697.183430080417</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C8" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D8" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>82.70113241379551</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>82.70113241379551</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1648.42596626823</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1285.809016202057</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>880.95356161309</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X8" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y8" t="n">
-        <v>461.8110981924006</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>516.14417192365</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4972,13 +4974,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1641.225609687538</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4987,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1566.39728555506</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1320.517839133516</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1320.517839133516</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>1033.562331003946</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>761.5359265902375</v>
       </c>
       <c r="X10" t="n">
-        <v>718.8484307043673</v>
+        <v>516.14417192365</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.8484307043673</v>
+        <v>516.14417192365</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.8859415858535</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C11" t="n">
-        <v>446.8859415858535</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D11" t="n">
-        <v>446.8859415858535</v>
+        <v>849.4592923969963</v>
       </c>
       <c r="E11" t="n">
-        <v>446.8859415858535</v>
+        <v>420.8776181342646</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5051,10 +5053,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N11" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5078,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5130,7 +5132,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N12" t="n">
-        <v>319.8519551513677</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O12" t="n">
         <v>739.9048540962709</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1199904125018</v>
+        <v>700.5034523966074</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1199904125018</v>
+        <v>527.9417408798323</v>
       </c>
       <c r="D13" t="n">
-        <v>376.2419976140245</v>
+        <v>362.063748081355</v>
       </c>
       <c r="E13" t="n">
-        <v>376.2419976140245</v>
+        <v>192.3057443320923</v>
       </c>
       <c r="F13" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5206,7 +5208,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M13" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N13" t="n">
         <v>761.8145120199619</v>
@@ -5224,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1013.629614209975</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>726.6741060804052</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W13" t="n">
-        <v>542.1199904125018</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X13" t="n">
-        <v>542.1199904125018</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1199904125018</v>
+        <v>892.3220711155946</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.3414999783445</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>849.4592923969963</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>420.8776181342646</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5288,16 +5290,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N14" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1667.625541688347</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1262.77008709938</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>843.6276236786911</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y14" t="n">
-        <v>435.3414999783445</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5343,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5367,10 +5369,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N15" t="n">
-        <v>319.8519551513677</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5443,16 +5445,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M16" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N16" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O16" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.59981788550692</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="C17" t="n">
-        <v>38.59981788550692</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D17" t="n">
-        <v>38.59981788550692</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>38.59981788550692</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>38.59981788550692</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5522,10 +5524,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M17" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5552,13 +5554,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y17" t="n">
-        <v>464.8993883704147</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M18" t="n">
-        <v>319.8519551513677</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N18" t="n">
         <v>319.8519551513677</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>455.1116977300199</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C19" t="n">
-        <v>282.5499862132448</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D19" t="n">
-        <v>282.5499862132448</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E19" t="n">
-        <v>112.7919824639821</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5680,16 +5682,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5704,19 +5706,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X19" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.930316449007</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.320903761553</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C20" t="n">
-        <v>917.1784309449763</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D20" t="n">
-        <v>481.2686461194208</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>53.40121652862856</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2410.838523748444</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2410.838523748444</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2200.76293766715</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1781.620474246461</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1781.620474246461</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N21" t="n">
-        <v>714.2412710704069</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.1364226482442</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>749.5747111314691</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>583.6967183329918</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>413.9387145837291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>237.2316605454853</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>71.64038557131298</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.181380009883</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>2145.748379262989</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1858.792871133419</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W22" t="n">
-        <v>1586.766466719711</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.374712053123</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.955041367231</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>919.4111189359975</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C23" t="n">
-        <v>481.2686461194208</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D23" t="n">
-        <v>481.2686461194208</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M23" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>714.2412710704069</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1375.081325612185</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2577.994731130908</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>2173.139276541941</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>1753.996813121252</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>1345.710689420905</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L24" t="n">
-        <v>277.7880908295411</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M24" t="n">
-        <v>938.6281453713194</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N24" t="n">
-        <v>1599.468199913098</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O24" t="n">
-        <v>1599.468199913098</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P24" t="n">
-        <v>1599.468199913098</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1278.040966659728</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.040966659728</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D26" t="n">
-        <v>849.4592923969963</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E26" t="n">
-        <v>420.8776181342646</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F26" t="n">
-        <v>34.36045797446834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="G26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6233,43 +6235,43 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O26" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P26" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X26" t="n">
-        <v>1278.040966659728</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y26" t="n">
-        <v>1278.040966659728</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6314,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M27" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N27" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>1294.102365436318</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>195.1384727187784</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="C28" t="n">
-        <v>195.1384727187784</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="D28" t="n">
-        <v>195.1384727187784</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E28" t="n">
-        <v>195.1384727187784</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G28" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H28" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M28" t="n">
-        <v>930.0072868842942</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N28" t="n">
         <v>930.0072868842942</v>
@@ -6415,19 +6417,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U28" t="n">
-        <v>1418.750429333523</v>
+        <v>1464.057133781579</v>
       </c>
       <c r="V28" t="n">
-        <v>1131.794921203953</v>
+        <v>1177.101625652009</v>
       </c>
       <c r="W28" t="n">
-        <v>859.7685167902448</v>
+        <v>905.0752212383005</v>
       </c>
       <c r="X28" t="n">
-        <v>614.3767621236573</v>
+        <v>659.683466571713</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.9570914377655</v>
+        <v>432.2637958858213</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38.59981788550692</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C29" t="n">
-        <v>38.59981788550692</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D29" t="n">
-        <v>38.59981788550692</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E29" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6464,25 +6466,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M29" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6500,13 +6502,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W29" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X29" t="n">
-        <v>873.1855120707613</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y29" t="n">
-        <v>464.8993883704147</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L30" t="n">
-        <v>319.8519551513677</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M30" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N30" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O30" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="N30" t="n">
-        <v>739.9048540962709</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.94366860160834</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F31" t="n">
         <v>33.94366860160834</v>
@@ -6622,13 +6624,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M31" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N31" t="n">
         <v>761.8145120199619</v>
@@ -6658,13 +6660,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W31" t="n">
-        <v>613.8890703687</v>
+        <v>744.789056624877</v>
       </c>
       <c r="X31" t="n">
-        <v>368.4973157021125</v>
+        <v>744.789056624877</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.0776450162207</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>751.6554974211238</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C32" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E32" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F32" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6707,16 +6709,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N32" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="O32" t="n">
-        <v>1277.130531135514</v>
-      </c>
       <c r="P32" t="n">
-        <v>1697.183430080417</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q32" t="n">
         <v>1697.183430080417</v>
@@ -6734,16 +6736,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>771.6250763881362</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="W32" t="n">
-        <v>771.6250763881362</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="X32" t="n">
-        <v>751.6554974211238</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y32" t="n">
-        <v>751.6554974211238</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6865,7 +6867,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M34" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N34" t="n">
         <v>761.8145120199619</v>
@@ -6883,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.765608785789</v>
+        <v>1590.049453665805</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.886162364244</v>
+        <v>1344.17000724426</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.45316161735</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V34" t="n">
-        <v>864.4976534877803</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W34" t="n">
-        <v>592.4712490740719</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X34" t="n">
-        <v>347.0794944074844</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.6598237215927</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.94366860160834</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C35" t="n">
-        <v>33.94366860160834</v>
+        <v>1608.104601274648</v>
       </c>
       <c r="D35" t="n">
-        <v>33.94366860160834</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6935,19 +6937,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K35" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L35" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N35" t="n">
         <v>453.9965675465116</v>
-      </c>
-      <c r="K35" t="n">
-        <v>453.9965675465116</v>
-      </c>
-      <c r="L35" t="n">
-        <v>453.9965675465116</v>
-      </c>
-      <c r="M35" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="N35" t="n">
-        <v>874.0494664914149</v>
       </c>
       <c r="O35" t="n">
         <v>874.0494664914149</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1483.211508471801</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U35" t="n">
-        <v>1223.989205788818</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V35" t="n">
-        <v>861.3722557226442</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W35" t="n">
-        <v>861.3722557226442</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X35" t="n">
-        <v>442.2297923019549</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.94366860160834</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L36" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M36" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N36" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>473.0837817107156</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C37" t="n">
-        <v>300.5220701939406</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D37" t="n">
-        <v>134.6440773954633</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E37" t="n">
-        <v>134.6440773954633</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F37" t="n">
-        <v>134.6440773954633</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7123,22 +7125,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1629.277535444727</v>
       </c>
       <c r="U37" t="n">
-        <v>1451.303983658873</v>
+        <v>1629.277535444727</v>
       </c>
       <c r="V37" t="n">
-        <v>1164.348475529303</v>
+        <v>1629.277535444727</v>
       </c>
       <c r="W37" t="n">
-        <v>892.3220711155946</v>
+        <v>1357.251131031019</v>
       </c>
       <c r="X37" t="n">
-        <v>892.3220711155946</v>
+        <v>1111.859376364431</v>
       </c>
       <c r="Y37" t="n">
-        <v>664.9024004297028</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C38" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D38" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E38" t="n">
         <v>33.94366860160834</v>
@@ -7178,10 +7180,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M38" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N38" t="n">
         <v>267.8706684926505</v>
@@ -7202,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1479.780839360421</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1220.558536677438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>857.9415866112644</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W38" t="n">
-        <v>453.0861320222976</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X38" t="n">
-        <v>33.94366860160834</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y38" t="n">
-        <v>33.94366860160834</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7262,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M39" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N39" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O39" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P39" t="n">
-        <v>1294.102365436318</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q39" t="n">
         <v>1697.183430080417</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>210.6507226398521</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C40" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D40" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
         <v>210.6507226398521</v>
@@ -7333,22 +7335,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L40" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M40" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N40" t="n">
-        <v>1292.259348259376</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
@@ -7357,25 +7359,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1539.336837018157</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1293.457390596612</v>
+        <v>1537.597236187233</v>
       </c>
       <c r="U40" t="n">
-        <v>1015.024389849718</v>
+        <v>1259.164235440338</v>
       </c>
       <c r="V40" t="n">
-        <v>728.0688817201481</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="W40" t="n">
-        <v>456.0424773064397</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="X40" t="n">
-        <v>210.6507226398521</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.6507226398521</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>521.4249017249305</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C41" t="n">
-        <v>521.4249017249305</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D41" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E41" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F41" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0270703481943</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1542.854121750029</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.566480014244</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="W41" t="n">
-        <v>929.7110254252771</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="X41" t="n">
-        <v>929.7110254252771</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="Y41" t="n">
-        <v>521.4249017249305</v>
+        <v>1180.237171683855</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7481,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7494,13 +7496,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L42" t="n">
-        <v>319.8519551513677</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M42" t="n">
         <v>319.8519551513677</v>
       </c>
       <c r="N42" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O42" t="n">
         <v>739.9048540962709</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>936.2947751752459</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C43" t="n">
-        <v>763.7330636584709</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D43" t="n">
-        <v>597.8550708599936</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E43" t="n">
-        <v>428.0970671107308</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7573,46 +7575,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M43" t="n">
-        <v>453.9965675465116</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N43" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1516.524240083786</v>
+        <v>1555.569320167929</v>
       </c>
       <c r="U43" t="n">
-        <v>1516.524240083786</v>
+        <v>1277.136319421034</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.568731954216</v>
+        <v>990.1808112914646</v>
       </c>
       <c r="W43" t="n">
-        <v>1229.568731954216</v>
+        <v>990.1808112914646</v>
       </c>
       <c r="X43" t="n">
-        <v>984.1769772876289</v>
+        <v>744.789056624877</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.1769772876289</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.48612067458814</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C44" t="n">
-        <v>14.48612067458814</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="D44" t="n">
-        <v>14.48612067458814</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="E44" t="n">
-        <v>14.48612067458814</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>17.35473893226555</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>196.6204822802937</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>541.4004696563243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>541.4004696563243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>358.4949055832417</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W44" t="n">
-        <v>175.5893415101591</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X44" t="n">
-        <v>175.5893415101591</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y44" t="n">
-        <v>175.5893415101591</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.9425818379459</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>14.48612067458814</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>14.48612067458814</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N45" t="n">
-        <v>69.3360255909825</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O45" t="n">
-        <v>248.6017689390107</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>724.3060337294069</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>547.9694867293751</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>365.0639226562926</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>182.15835858321</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>120.9425818379459</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>120.9425818379459</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.8357155866103</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C46" t="n">
-        <v>177.8357155866103</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D46" t="n">
-        <v>177.8357155866103</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E46" t="n">
-        <v>177.8357155866103</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>177.8357155866103</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>103.1460698999128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1460698999128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3160288209901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>197.5817721690183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>197.5817721690183</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M46" t="n">
-        <v>197.5817721690183</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N46" t="n">
-        <v>197.5817721690183</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>702.8882124347788</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>543.6468437327754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>360.7412796596929</v>
+        <v>1520.877061282504</v>
       </c>
       <c r="U46" t="n">
-        <v>360.7412796596929</v>
+        <v>1242.444060535609</v>
       </c>
       <c r="V46" t="n">
-        <v>360.7412796596929</v>
+        <v>955.4885524060398</v>
       </c>
       <c r="W46" t="n">
-        <v>360.7412796596929</v>
+        <v>683.4621479923314</v>
       </c>
       <c r="X46" t="n">
-        <v>177.8357155866103</v>
+        <v>438.0703933257439</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.8357155866103</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8377,19 +8379,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8620,7 +8622,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O12" t="n">
         <v>288.7962490401609</v>
-      </c>
-      <c r="O12" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
@@ -8854,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N13" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8936,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O14" t="n">
         <v>424.2958575201043</v>
@@ -8945,10 +8947,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O15" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9091,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201043</v>
@@ -9103,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9170,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9249,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>288.7962490401609</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.2958575201043</v>
@@ -9328,19 +9330,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>409.401749030468</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9407,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N20" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9644,19 +9646,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078568</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>585.1784344521125</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9720,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9802,10 +9804,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9881,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q26" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P26" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>288.796249040161</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10030,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M28" t="n">
-        <v>117.6925219988882</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10112,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>424.2958575201043</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="P30" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10270,16 +10272,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10355,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O32" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10513,10 +10515,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N34" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N34" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10668,19 +10670,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N36" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10753,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10826,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N39" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P39" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q39" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10981,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O40" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>424.2958575201044</v>
@@ -11221,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11303,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.897594199674156</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11385,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.40394435999431</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.868594087274712</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22547,16 +22549,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>46.78500883508946</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22708,13 +22710,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>137.1476647496329</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>117.512471397221</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>14.77590504048163</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22844,7 +22846,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>17.74229000574712</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22951,7 +22953,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -23036,10 +23038,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>238.381585316282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>208.3601904820881</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23179,22 +23181,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>28.17067193487983</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>71.19893311280666</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>15.18852651961299</v>
+        <v>40.52414525755466</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23276,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>18.16152852468227</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,19 +23466,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>86.59756585834705</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23498,16 +23500,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>40.52414525755466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>329.7284710573622</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>28.34456025427443</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23744,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>392.7742652719091</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23792,7 +23794,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>96.88015277411134</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>47.60968125113078</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -24023,16 +24025,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>192.8320698225953</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>267.845346217997</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
         <v>7.254829457195569</v>
@@ -24452,16 +24454,16 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F26" t="n">
-        <v>40.93676673668602</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>324.3459716929541</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24506,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24607,19 +24609,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.35712742186297</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>44.85363740357539</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>424.8274096022282</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24740,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>40.52414525755449</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>129.5909863936153</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24929,10 +24931,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24974,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>91.37511687441042</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>395.18115560914</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>72.78996144619913</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25154,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>428.3883626487003</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.034352463161525</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>152.0153072515857</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>176.1938162679962</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25442,19 +25444,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>2.637990042895353</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>38.97196474272886</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>1.380827883345574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>85.43032000307699</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25630,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25640,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>201.0162852820958</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>186.6594194870702</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.4970524405381</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>103.2226831439656</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.5443861528434</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25871,13 +25873,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>8.005504350462957</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>177.91427213316</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>219.7303916107253</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04983432626892</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>92.71514242569729</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,16 +26034,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99261299460009</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>62.34414352497757</v>
+        <v>68.8773468473953</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>61.86132868756994</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360607.0126862204</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360607.0126862206</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360607.0126862205</v>
+        <v>360607.0126862206</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507286.8426868578</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507286.8426868578</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360607.0126862206</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153896.0553494152</v>
+        <v>360607.0126862206</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="C2" t="n">
         <v>60101.16878103676</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>60101.16878103676</v>
+      </c>
+      <c r="E2" t="n">
+        <v>60101.16878103676</v>
+      </c>
+      <c r="F2" t="n">
         <v>60101.16878103675</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60101.16878103677</v>
-      </c>
-      <c r="E2" t="n">
-        <v>60101.16878103677</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60101.16878103677</v>
       </c>
       <c r="G2" t="n">
         <v>60101.16878103676</v>
       </c>
       <c r="H2" t="n">
-        <v>84547.80711447631</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="I2" t="n">
-        <v>84547.80711447629</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="J2" t="n">
+        <v>60101.16878103675</v>
+      </c>
+      <c r="K2" t="n">
         <v>60101.16878103676</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>60101.16878103677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60101.16878103676</v>
       </c>
       <c r="M2" t="n">
         <v>60101.16878103677</v>
       </c>
       <c r="N2" t="n">
+        <v>60101.16878103675</v>
+      </c>
+      <c r="O2" t="n">
+        <v>60101.16878103676</v>
+      </c>
+      <c r="P2" t="n">
         <v>60101.16878103677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>60101.16878103677</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25649.34255823588</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="C4" t="n">
         <v>367.9287957210698</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9287957210698</v>
+        <v>367.9287957210699</v>
       </c>
       <c r="E4" t="n">
         <v>367.9287957210698</v>
@@ -26433,10 +26435,10 @@
         <v>367.9287957210698</v>
       </c>
       <c r="H4" t="n">
-        <v>517.586820413078</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="I4" t="n">
-        <v>517.5868204130782</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="J4" t="n">
         <v>367.9287957210698</v>
@@ -26445,19 +26447,19 @@
         <v>367.9287957210698</v>
       </c>
       <c r="L4" t="n">
-        <v>367.9287957210698</v>
+        <v>367.9287957210699</v>
       </c>
       <c r="M4" t="n">
         <v>367.9287957210698</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287957210698</v>
+        <v>367.9287957210699</v>
       </c>
       <c r="O4" t="n">
         <v>367.9287957210698</v>
       </c>
       <c r="P4" t="n">
-        <v>157.0207686454599</v>
+        <v>367.9287957210698</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-141882.8488116166</v>
       </c>
       <c r="C6" t="n">
-        <v>308.4518480933402</v>
+        <v>308.4518480933475</v>
       </c>
       <c r="D6" t="n">
-        <v>308.4518480933548</v>
+        <v>308.4518480933475</v>
       </c>
       <c r="E6" t="n">
-        <v>33936.05184809336</v>
+        <v>33936.05184809335</v>
       </c>
       <c r="F6" t="n">
-        <v>33936.05184809335</v>
+        <v>33936.05184809334</v>
       </c>
       <c r="G6" t="n">
         <v>33936.05184809335</v>
       </c>
       <c r="H6" t="n">
-        <v>-22177.47362571193</v>
+        <v>33936.05184809335</v>
       </c>
       <c r="I6" t="n">
-        <v>43445.29573230551</v>
+        <v>33936.05184809335</v>
       </c>
       <c r="J6" t="n">
-        <v>-13441.53012418088</v>
+        <v>-77078.41349689684</v>
       </c>
       <c r="K6" t="n">
         <v>33936.05184809335</v>
@@ -26555,13 +26557,13 @@
         <v>33936.05184809335</v>
       </c>
       <c r="N6" t="n">
-        <v>33936.05184809335</v>
+        <v>33936.05184809334</v>
       </c>
       <c r="O6" t="n">
         <v>33936.05184809335</v>
       </c>
       <c r="P6" t="n">
-        <v>14482.87007690343</v>
+        <v>33936.05184809335</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34784,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35340,16 +35342,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O12" t="n">
         <v>288.7962490401609</v>
-      </c>
-      <c r="O12" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
@@ -35574,10 +35576,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N13" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -35656,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O14" t="n">
         <v>424.2958575201043</v>
@@ -35665,10 +35667,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O15" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35811,19 +35813,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O17" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>288.7962490401609</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.2958575201043</v>
@@ -36048,19 +36050,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>409.401749030468</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,22 +36129,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N20" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O21" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,19 +36366,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078568</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>585.1784344521125</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36601,22 +36603,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q26" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P26" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>288.796249040161</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M28" t="n">
-        <v>117.6925219988882</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>424.2958575201043</v>
@@ -36923,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="P30" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36990,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -37075,19 +37077,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O32" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N34" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N34" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N36" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -37473,10 +37475,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37546,13 +37548,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N39" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P39" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q39" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O40" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>424.2958575201044</v>
@@ -37941,22 +37943,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.897594199674156</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.40394435999431</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.868594087274712</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>963.5745280696397</v>
+        <v>-5271.742971085337</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493688</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11090349.1787348</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>49.82206968889088</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>60.23804238065582</v>
       </c>
       <c r="F4" t="n">
-        <v>37.79231874822841</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>408.8128502544027</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>412.3130487435869</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>12.95827676142962</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.85726769493389</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>184.6540713421927</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>129.4782830801035</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
@@ -1381,7 +1381,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>290.9044362257064</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>156.7784549731791</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13.8523599663048</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>215.2285648127963</v>
       </c>
       <c r="F14" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>68.3060204131027</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>405.4164878341365</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>320.4517931110355</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>120.4071921052335</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>323.5190143119671</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>11.16148388874649</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>248.0703178597442</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2560,16 +2560,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>73.03788137001466</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.53740730337287</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>230.7950333358503</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>347.0079717889944</v>
       </c>
       <c r="C29" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>54.41946510213062</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>139.715153975956</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>37.28016130075125</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3088,7 +3088,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>267.6156636911013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>129.232281521643</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>84.85899356878417</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.372685439710589</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>424.2958575201043</v>
@@ -3277,13 +3277,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>73.03788137001466</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>67.22683568933304</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>45.48425460983663</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>148.7864081779834</v>
       </c>
       <c r="X38" t="n">
-        <v>375.9790740437535</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>157.9903319542523</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>48.81188030534062</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>69.97066016908303</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>242.9629419740113</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>140.1979688133637</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>45.94361071252657</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>325.7782970520128</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
-        <v>421.4314930428248</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>16.69419926248047</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>174.543305109934</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4342,10 +4342,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1646.858107162346</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1284.241157096172</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>879.3857025072055</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,13 +4412,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.2711264523757</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C4" t="n">
-        <v>466.2711264523757</v>
+        <v>260.6681688552936</v>
       </c>
       <c r="D4" t="n">
-        <v>466.2711264523757</v>
+        <v>94.79017605681625</v>
       </c>
       <c r="E4" t="n">
-        <v>466.2711264523757</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y4" t="n">
-        <v>466.2711264523757</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.8859415858535</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C5" t="n">
-        <v>446.8859415858535</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>446.8859415858535</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>446.8859415858535</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.1855120707613</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,31 +4634,31 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O6" t="n">
         <v>739.9048540962709</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.0776450162207</v>
+        <v>47.03283704749686</v>
       </c>
       <c r="C7" t="n">
-        <v>141.0776450162207</v>
+        <v>47.03283704749686</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>238.851455766484</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>82.70113241379551</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>82.70113241379551</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4837,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4883,22 +4883,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,52 +4962,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1566.39728555506</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1320.517839133516</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1320.517839133516</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>1033.562331003946</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W10" t="n">
-        <v>761.5359265902375</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X10" t="n">
-        <v>516.14417192365</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.14417192365</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4592923969963</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E11" t="n">
-        <v>420.8776181342646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5053,10 +5053,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J12" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K12" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L12" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M12" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N12" t="n">
-        <v>453.9965675465116</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.5034523966074</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C13" t="n">
-        <v>527.9417408798323</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D13" t="n">
-        <v>362.063748081355</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E13" t="n">
-        <v>192.3057443320923</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X13" t="n">
-        <v>892.3220711155946</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.3220711155946</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1278.040966659728</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.040966659728</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="D14" t="n">
-        <v>849.4592923969963</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="E14" t="n">
-        <v>420.8776181342646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5290,16 +5290,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q14" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5311,19 +5311,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>251.3462593216046</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L15" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M15" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N15" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O15" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>445.2593640829014</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>272.6976525661264</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>272.6976525661264</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>102.9396488168636</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>102.9396488168636</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>102.9396488168636</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>102.9396488168636</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L16" t="n">
-        <v>33.94366860160834</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M16" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N16" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5460,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>637.0779828018885</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>443.4552724744735</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C17" t="n">
-        <v>33.94366860160834</v>
+        <v>646.762503068529</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>646.762503068529</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>646.762503068529</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>646.762503068529</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5527,7 +5527,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5548,19 +5548,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y17" t="n">
-        <v>869.7548429593813</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K18" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L18" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M18" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N18" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O18" t="n">
         <v>739.9048540962709</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.6507226398521</v>
+        <v>803.3416511546014</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6507226398521</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="D19" t="n">
-        <v>210.6507226398521</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M19" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N19" t="n">
         <v>761.8145120199619</v>
@@ -5697,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1554.142182416866</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1267.186674287297</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>995.1602698735885</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>995.1602698735885</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.6507226398521</v>
+        <v>995.1602698735885</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.974446717864</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C20" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D20" t="n">
-        <v>461.8110981924006</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
         <v>33.94366860160834</v>
@@ -5761,19 +5761,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>437.0247332457074</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>857.0776321906106</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
         <v>1697.183430080417</v>
@@ -5782,22 +5782,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K21" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L21" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
         <v>33.94366860160834</v>
@@ -5916,10 +5916,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M22" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N22" t="n">
         <v>761.8145120199619</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1505.250013933537</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>1218.294505803967</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1697.183430080417</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.974446717864</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D23" t="n">
-        <v>890.3927724551322</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G23" t="n">
         <v>33.94366860160834</v>
@@ -5998,10 +5998,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M23" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N23" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6019,22 +6019,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1226.54012430725</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.183430080417</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
         <v>33.94366860160834</v>
@@ -6147,19 +6147,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>726.9120049407049</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V25" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W25" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X25" t="n">
-        <v>368.4973157021125</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.0776450162207</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1393.464329137293</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C26" t="n">
-        <v>964.8826548745612</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D26" t="n">
-        <v>536.3009806118296</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E26" t="n">
-        <v>107.7193063490979</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F26" t="n">
-        <v>107.7193063490979</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
         <v>33.94366860160834</v>
@@ -6235,13 +6235,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6259,19 +6259,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1393.464329137293</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1393.464329137293</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X26" t="n">
-        <v>1393.464329137293</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y26" t="n">
-        <v>1393.464329137293</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6305,25 +6305,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K27" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L27" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M27" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N27" t="n">
-        <v>453.9965675465116</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="O27" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2637958858213</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C28" t="n">
-        <v>432.2637958858213</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D28" t="n">
-        <v>432.2637958858213</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E28" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6390,46 +6390,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>89.90148899448771</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M28" t="n">
-        <v>509.954387939391</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N28" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1592.394490297534</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.183430080417</v>
+        <v>1346.515043875989</v>
       </c>
       <c r="U28" t="n">
-        <v>1464.057133781579</v>
+        <v>1346.515043875989</v>
       </c>
       <c r="V28" t="n">
-        <v>1177.101625652009</v>
+        <v>1059.559535746419</v>
       </c>
       <c r="W28" t="n">
-        <v>905.0752212383005</v>
+        <v>787.533131332711</v>
       </c>
       <c r="X28" t="n">
-        <v>659.683466571713</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="Y28" t="n">
-        <v>432.2637958858213</v>
+        <v>542.1413766661235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1318.974446717864</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C29" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D29" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6466,25 +6466,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L29" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M29" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N29" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O29" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6493,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="X29" t="n">
-        <v>1318.974446717864</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="Y29" t="n">
-        <v>1318.974446717864</v>
+        <v>813.0384456815061</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L30" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M30" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N30" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O30" t="n">
         <v>739.9048540962709</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.97043790589</v>
+        <v>564.4509961277927</v>
       </c>
       <c r="C31" t="n">
-        <v>380.4087263891149</v>
+        <v>564.4509961277927</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4087263891149</v>
+        <v>398.5730033293154</v>
       </c>
       <c r="E31" t="n">
-        <v>210.6507226398521</v>
+        <v>228.8149995800526</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6624,13 +6624,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M31" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N31" t="n">
         <v>761.8145120199619</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W31" t="n">
-        <v>744.789056624877</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X31" t="n">
-        <v>744.789056624877</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.789056624877</v>
+        <v>756.2696148467799</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>863.9231742410761</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C32" t="n">
-        <v>435.3414999783445</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D32" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6712,40 +6712,40 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O32" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q32" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.531556264254</v>
+        <v>1659.5267014938</v>
       </c>
       <c r="T32" t="n">
-        <v>1393.464329137293</v>
+        <v>1439.459474366839</v>
       </c>
       <c r="U32" t="n">
-        <v>1134.24202645431</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="V32" t="n">
-        <v>863.9231742410761</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="W32" t="n">
-        <v>863.9231742410761</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="X32" t="n">
-        <v>863.9231742410761</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="Y32" t="n">
-        <v>863.9231742410761</v>
+        <v>1180.237171683855</v>
       </c>
     </row>
     <row r="33">
@@ -6791,7 +6791,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N33" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O33" t="n">
         <v>739.9048540962709</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.94366860160834</v>
+        <v>672.6790347687931</v>
       </c>
       <c r="C34" t="n">
-        <v>33.94366860160834</v>
+        <v>500.1173232520181</v>
       </c>
       <c r="D34" t="n">
-        <v>33.94366860160834</v>
+        <v>334.2393304535408</v>
       </c>
       <c r="E34" t="n">
-        <v>33.94366860160834</v>
+        <v>164.481326704278</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>164.481326704278</v>
       </c>
       <c r="G34" t="n">
         <v>33.94366860160834</v>
@@ -6858,13 +6858,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L34" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M34" t="n">
         <v>341.7616130750586</v>
@@ -6885,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1590.049453665805</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1344.17000724426</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U34" t="n">
-        <v>1065.737006497366</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V34" t="n">
-        <v>778.7814983677961</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W34" t="n">
-        <v>506.7550939540876</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X34" t="n">
-        <v>261.3633392875001</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.94366860160834</v>
+        <v>864.4976534877803</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C35" t="n">
-        <v>1608.104601274648</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D35" t="n">
-        <v>1179.522927011916</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E35" t="n">
-        <v>750.9412527491843</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6949,13 +6949,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O35" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6967,22 +6967,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y35" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
         <v>1159.957753041174</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>884.4397056785397</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C37" t="n">
-        <v>711.8779941617646</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D37" t="n">
-        <v>546.0000013632873</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E37" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F37" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G37" t="n">
         <v>33.94366860160834</v>
@@ -7101,10 +7101,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M37" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N37" t="n">
         <v>761.8145120199619</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1629.277535444727</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U37" t="n">
-        <v>1629.277535444727</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V37" t="n">
-        <v>1629.277535444727</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="W37" t="n">
-        <v>1357.251131031019</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.859376364431</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.4397056785397</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C38" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D38" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E38" t="n">
         <v>33.94366860160834</v>
@@ -7180,10 +7180,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M38" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N38" t="n">
         <v>267.8706684926505</v>
@@ -7207,19 +7207,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>1287.671826207552</v>
       </c>
       <c r="X38" t="n">
-        <v>1317.406587611979</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y38" t="n">
-        <v>1317.406587611979</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I39" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J39" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R39" t="n">
         <v>1697.183430080417</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.97043790589</v>
+        <v>688.99260126473</v>
       </c>
       <c r="C40" t="n">
-        <v>380.4087263891149</v>
+        <v>516.4308897479549</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4087263891149</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E40" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G40" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H40" t="n">
         <v>33.94366860160834</v>
@@ -7332,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7356,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.597236187233</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1259.164235440338</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V40" t="n">
-        <v>972.2087273107688</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W40" t="n">
-        <v>972.2087273107688</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X40" t="n">
-        <v>972.2087273107688</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.789056624877</v>
+        <v>688.99260126473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1180.237171683855</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C41" t="n">
-        <v>751.6554974211238</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7441,22 +7441,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1542.854121750029</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>1180.237171683855</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W41" t="n">
-        <v>1180.237171683855</v>
+        <v>888.8249133492478</v>
       </c>
       <c r="X41" t="n">
-        <v>1180.237171683855</v>
+        <v>888.8249133492478</v>
       </c>
       <c r="Y41" t="n">
-        <v>1180.237171683855</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K42" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L42" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.97043790589</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C43" t="n">
-        <v>380.4087263891149</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D43" t="n">
         <v>380.4087263891149</v>
@@ -7569,52 +7569,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1555.569320167929</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>1277.136319421034</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V43" t="n">
-        <v>990.1808112914646</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W43" t="n">
-        <v>990.1808112914646</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X43" t="n">
-        <v>744.789056624877</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.789056624877</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1288.897306380071</v>
+        <v>791.594329785565</v>
       </c>
       <c r="C44" t="n">
-        <v>1288.897306380071</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D44" t="n">
-        <v>1288.897306380071</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E44" t="n">
-        <v>863.2089295691367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F44" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
         <v>33.94366860160834</v>
@@ -7660,10 +7660,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
         <v>1107.976466382457</v>
@@ -7678,22 +7678,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y44" t="n">
-        <v>1288.897306380071</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K45" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L45" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
         <v>1159.957753041174</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.6507226398521</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="C46" t="n">
-        <v>210.6507226398521</v>
+        <v>691.9359419710053</v>
       </c>
       <c r="D46" t="n">
-        <v>210.6507226398521</v>
+        <v>526.057949172528</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6507226398521</v>
+        <v>356.2999454232652</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H46" t="n">
         <v>33.94366860160834</v>
@@ -7806,16 +7806,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L46" t="n">
-        <v>452.1535503695694</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M46" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N46" t="n">
         <v>761.8145120199619</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1520.877061282504</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.444060535609</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>955.4885524060398</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W46" t="n">
-        <v>683.4621479923314</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X46" t="n">
-        <v>438.0703933257439</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.6507226398521</v>
+        <v>864.4976534877803</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201043</v>
@@ -8631,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8701,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8768,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O14" t="n">
         <v>424.2958575201043</v>
@@ -8947,10 +8947,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9242,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9424,7 +9424,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9564,13 +9564,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9646,13 +9646,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O23" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9804,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9883,16 +9883,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P27" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>56.52305090189834</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>424.2958575201043</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L29" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P29" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>424.2958575201044</v>
@@ -10272,16 +10272,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -10369,10 +10369,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O33" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O33" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P33" t="n">
         <v>424.2958575201044</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>424.2958575201043</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -10606,7 +10606,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10828,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P39" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10992,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11138,25 +11138,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M42" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N43" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
         <v>424.2958575201044</v>
@@ -11375,25 +11375,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>312.7888501519116</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22603,16 +22603,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8080099672624</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22707,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>107.8223813311143</v>
       </c>
       <c r="F4" t="n">
-        <v>137.1476647496329</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22795,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>14.77590504048163</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22837,19 +22837,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2.637990042895467</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>151.2609361090629</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>68.87734684739507</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,16 +23032,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>238.381585316282</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>219.5491911211504</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23190,13 +23190,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>28.17067193487983</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
@@ -23269,7 +23269,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>40.52414525755466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23323,7 +23323,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>124.046602560776</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>18.16152852468227</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>211.293114012728</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>214.2084325804915</v>
       </c>
       <c r="F14" t="n">
-        <v>40.52414525755466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23551,13 +23551,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -23673,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>19.46732931996871</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>28.34456025427443</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>76.93205995193324</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23788,19 +23788,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>155.2414786341922</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.60968125113078</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24022,13 +24022,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>35.47176625354462</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>264.4871868506792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24259,13 +24259,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>8.559761796409077</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>170.7232071360872</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>324.3459716929541</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>94.7981638545188</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24603,10 +24603,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>75.11154771161043</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>44.85363740357539</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>75.02860299106425</v>
       </c>
       <c r="C29" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24733,19 +24733,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>120.5205183957307</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>129.5909863936153</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24931,10 +24931,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>45.53519377725011</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>91.37511687441042</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>34.70308070278762</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.78996144619913</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>428.3883626487003</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>7.254829457195569</v>
@@ -25165,13 +25165,13 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>350.5508739248697</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>176.1938162679962</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>238.6016984384372</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25447,19 +25447,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>252.0204918650936</v>
       </c>
       <c r="X38" t="n">
-        <v>38.97196474272886</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>85.43032000307699</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>176.3335936736922</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25645,7 +25645,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>186.6594194870702</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>157.8439580690657</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>103.2226831439656</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>229.7050600268991</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>107.9827510363982</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
-        <v>8.005504350462957</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25918,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>158.2457842353809</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>68.8773468473953</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360607.0126862206</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>360607.0126862205</v>
+        <v>360607.0126862206</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360607.0126862205</v>
+        <v>360607.0126862206</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360607.0126862205</v>
+        <v>360607.0126862206</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>360607.0126862205</v>
+        <v>360607.0126862206</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360607.0126862206</v>
+        <v>360607.0126862205</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>60101.16878103677</v>
       </c>
       <c r="C2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="D2" t="n">
         <v>60101.16878103676</v>
       </c>
       <c r="E2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103675</v>
       </c>
       <c r="F2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="H2" t="n">
         <v>60101.16878103675</v>
       </c>
-      <c r="G2" t="n">
-        <v>60101.16878103676</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60101.16878103676</v>
-      </c>
       <c r="I2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="J2" t="n">
-        <v>60101.16878103675</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="K2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="L2" t="n">
         <v>60101.16878103677</v>
       </c>
       <c r="M2" t="n">
+        <v>60101.16878103675</v>
+      </c>
+      <c r="N2" t="n">
         <v>60101.16878103677</v>
       </c>
-      <c r="N2" t="n">
-        <v>60101.16878103675</v>
-      </c>
       <c r="O2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="P2" t="n">
         <v>60101.16878103676</v>
-      </c>
-      <c r="P2" t="n">
-        <v>60101.16878103677</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>367.9287957210698</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="E4" t="n">
         <v>367.9287957210698</v>
@@ -26447,13 +26447,13 @@
         <v>367.9287957210698</v>
       </c>
       <c r="L4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="M4" t="n">
         <v>367.9287957210698</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="O4" t="n">
         <v>367.9287957210698</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141882.8488116166</v>
+        <v>-142622.2054235322</v>
       </c>
       <c r="C6" t="n">
-        <v>308.4518480933475</v>
+        <v>-430.9047638222987</v>
       </c>
       <c r="D6" t="n">
-        <v>308.4518480933475</v>
+        <v>-430.904763822306</v>
       </c>
       <c r="E6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.69523617769</v>
       </c>
       <c r="F6" t="n">
-        <v>33936.05184809334</v>
+        <v>33196.6952361777</v>
       </c>
       <c r="G6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.6952361777</v>
       </c>
       <c r="H6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.69523617769</v>
       </c>
       <c r="I6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.69523617771</v>
       </c>
       <c r="J6" t="n">
-        <v>-77078.41349689684</v>
+        <v>-77817.77010881249</v>
       </c>
       <c r="K6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.6952361777</v>
       </c>
       <c r="L6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.6952361777</v>
       </c>
       <c r="M6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.69523617769</v>
       </c>
       <c r="N6" t="n">
-        <v>33936.05184809334</v>
+        <v>33196.6952361777</v>
       </c>
       <c r="O6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.6952361777</v>
       </c>
       <c r="P6" t="n">
-        <v>33936.05184809335</v>
+        <v>33196.69523617769</v>
       </c>
     </row>
   </sheetData>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35114,7 +35114,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35421,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O14" t="n">
         <v>424.2958575201043</v>
@@ -35667,10 +35667,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35895,10 +35895,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>424.2958575201044</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -36129,13 +36129,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36144,7 +36144,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36284,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36366,13 +36366,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O23" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36524,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P27" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36758,10 +36758,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>56.52305090189834</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>424.2958575201043</v>
@@ -36773,7 +36773,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L29" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P29" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>424.2958575201044</v>
@@ -36992,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -37089,10 +37089,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O33" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O33" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P33" t="n">
         <v>424.2958575201044</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>424.2958575201043</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -37326,7 +37326,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37469,13 +37469,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -37548,13 +37548,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P39" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37712,10 +37712,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M42" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N43" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
         <v>424.2958575201044</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>312.7888501519116</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
